--- a/src/test/resources/data/in/LoginLogout.xlsx
+++ b/src/test/resources/data/in/LoginLogout.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="2445" windowWidth="14670" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="NoraUi-LoginLogout" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Motifs">#REF!</definedName>
@@ -61,26 +61,31 @@
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -98,7 +103,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF006058"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,7 +126,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -129,18 +133,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF6600"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -467,7 +465,7 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +476,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -489,120 +487,120 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -684,17 +682,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="3" priority="21">
+    <cfRule type="expression" dxfId="2" priority="21">
       <formula>COUNTIFS($A:$A,$A3,$C:$C, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:C20">
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>COUNTIFS($A:$A,$A2,$C:$C, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="0" priority="24">
       <formula>COUNTIFS($A:$A,$A12,$C:$C, "Échec :*") &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
